--- a/biology/Botanique/Moltkia_petraea/Moltkia_petraea.xlsx
+++ b/biology/Botanique/Moltkia_petraea/Moltkia_petraea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Moltkia des rochers (Moltkia petraea) est une espèce de plantes de la famille des Boraginacées originaire des Balkans et de Grèce.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Moltkia petraea forme un petit buisson, vivace, caduc et de petite taille (moins 40 cm).
 Les tiges sont ligneuses à la base.
 Les fleurs, portées par des cymes scorpioïdes terminales de couleur bleue, sont tubulaires campanulées, à cinq pétales sans pilosité, cinq étamines dépassant légèrement la corolle, un pistil très largement exsert et des carpelles à deux ovules (caractéristiques assez générales de la famille).
-Cette espèce compte 2 × n = 16 chromosomes[1] ; ce décompte correspond à celui effectué en ex Yougoslavie (S.Čedomil Šilić - 1984)
+Cette espèce compte 2 × n = 16 chromosomes ; ce décompte correspond à celui effectué en ex Yougoslavie (S.Čedomil Šilić - 1984)
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire des Balkans (ex Yougoslavie, Albanie) et de Grèce continentale. Son utilisation ornementale l'a répandue dans beaucoup de pays à climat tempéré sec.
 Il s'agit d'une espèce de terrains ensoleillés, calcaires et secs.
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a un usage ornemental en plante de jardin de rocaille. Elle est assez largement diffusée en France.
 </t>
@@ -608,12 +626,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leopold Trattinnick produit, sans description, une planche de cette plante de l'herbier de Franz von Portenschlag-Ledermayer qu'il place dans le genre Echium : Echium petraeum[2].
-En 1844[3], August Heinrich Rudolf Grisebach la place dans le genre Moltkia[4].
-En 1846, Alphonse Pyrame de Candolle la classe dans le genre Lithospermum : Lithospermum petraeaum (Tratt.) DC.[5].
-En 1953, Ivan Muray Johnston confirme son classement dans le genre Moltkia et la place dans la section Echianthus (Viv.) I.M.Johnston [6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leopold Trattinnick produit, sans description, une planche de cette plante de l'herbier de Franz von Portenschlag-Ledermayer qu'il place dans le genre Echium : Echium petraeum.
+En 1844, August Heinrich Rudolf Grisebach la place dans le genre Moltkia.
+En 1846, Alphonse Pyrame de Candolle la classe dans le genre Lithospermum : Lithospermum petraeaum (Tratt.) DC..
+En 1953, Ivan Muray Johnston confirme son classement dans le genre Moltkia et la place dans la section Echianthus (Viv.) I.M.Johnston .
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme le genre, elle est placée dans la tribu des Lithospermeae de la sous-famille des Boraginae de la famille des Boraginacées.
 Elle compte deux synonymes :
